--- a/src/fastga_he/models/propulsion/components/propulsor/propeller/unit_tests/Propeller_database.xlsx
+++ b/src/fastga_he/models/propulsion/components/propulsor/propeller/unit_tests/Propeller_database.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="B2:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
